--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>produce</t>
   </si>
@@ -28,18 +28,33 @@
     <t>protein</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>4 cloves garlic</t>
+  </si>
+  <si>
     <t>2.0 cup onion</t>
   </si>
   <si>
     <t>16.0 oz canned tomato</t>
   </si>
   <si>
+    <t>16 carrots</t>
+  </si>
+  <si>
     <t>0.5 tbs garlic</t>
   </si>
   <si>
     <t>5.0 oz cheese</t>
   </si>
   <si>
+    <t>4.0 cups whole milk</t>
+  </si>
+  <si>
     <t>1.0 gal milk</t>
   </si>
   <si>
@@ -47,6 +62,9 @@
   </si>
   <si>
     <t>5.0 lbs beef</t>
+  </si>
+  <si>
+    <t>333.0 can josh</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,32 +442,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
